--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\Projects\[python]FMCL\#tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FMCL-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DF2CFF-2E15-4C06-ADD9-8A665C7F37EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Namespace" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1590,17 +1591,318 @@
   </si>
   <si>
     <t>Settings.Download.GUI.Threads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁體中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>確認要啓動游戲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>"{}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嗎？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 選擇版本 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啓動游戲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戲設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戲非正常退出，錯誤代碼是{}\n請將您的FMCL.log發送給其他人尋求幫助，而不是這個彈窗的截圖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本檢查出現錯誤，請重新選擇或者手動檢查。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按下確認會啓動游戲，請耐心等待游戲窗口出現，然後游玩Minecraft！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">- 選擇賬戶  - </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建賬戶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本或賬戶不存在！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>請輸入賬戶名稱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="JetBrains Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>您確定要刪除賬戶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="JetBrains Mono Light"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“{}”嗎？</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請鍵入重定向鏈接。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刪除所選賬戶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建Microsoft賬戶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建離綫賬戶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賬戶昵稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加賬戶成功！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建Microsoft賬戶方法：\n1.打開登錄鏈接\n2.完成登錄后將重定向到的鏈接複製到對話框\n3.點擊確定鍵打開登錄鏈接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>訪問出錯，請檢查你的鏈接和網絡鏈接。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>發生未知錯誤，報錯信息如下：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="JetBrains Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n{}</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入正確的鏈接。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關閉窗口后進行登錄，請耐心等待，期間不要關閉啓動器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下載綫程並發數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>\n()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（0為單綫程）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改語言成功！請重啓啓動器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用優化游戲參數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瀏覽本地文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.minecraft游戲路徑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本隔離</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>修改成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="JetBrains Mono Light"/>
+        <family val="3"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>請輸入正確的路徑！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊此處刷新頭像，離綫賬戶沒有頭像。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啓動器自動更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賬戶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啓動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啓動器設置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢測到新的FMCL版本：{}\n{}\n是否進行更新？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您似乎解壓了啓動器，如果你不是開發者，請不要這麽做。自動更新已經停用。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1666,6 +1968,40 @@
       <name val="JetBrains Mono Light"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1698,29 +2034,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1733,6 +2063,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2019,21 +2361,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="50.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="4" width="50.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -2046,12 +2388,15 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="33">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2060,470 +2405,596 @@
       <c r="D2" s="4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="E3" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="E4" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="E5" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="E6" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
+      <c r="E7" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+      <c r="E8" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="40.5">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="E9" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27">
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="E10" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11" t="s">
+      <c r="E11" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40.5">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
+      <c r="E12" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10" t="s">
+      <c r="E13" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="E14" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="B16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="16.5">
       <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="E19" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="E20" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="40.5">
+      <c r="B21" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="E21" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="27">
+      <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="E22" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="27">
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="E23" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="E24" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="40.5">
+      <c r="B25" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="16.5">
       <c r="B26" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="E26" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="27">
+      <c r="B27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="16.5">
       <c r="B28" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
       <c r="B30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
       <c r="B31" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
       <c r="B32" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="11" t="s">
+      <c r="E32" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="16.5">
+      <c r="B33" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="11" t="s">
+      <c r="E33" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+      <c r="E34" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="27">
+      <c r="B35" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="16.5">
       <c r="B36" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="16.5">
       <c r="B37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
       <c r="B38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
       <c r="B39" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
       <c r="B40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
       <c r="B41" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="42" spans="2:4" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+      <c r="E41" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="27">
+      <c r="B42" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="43" spans="2:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
+      <c r="E42" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="40.5">
+      <c r="B43" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="E43" s="2" t="s">
+        <v>184</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D43">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
     <sortCondition ref="B2:B43"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2533,56 +3004,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2590,5 +3061,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FMCL-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DF2CFF-2E15-4C06-ADD9-8A665C7F37EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2F598B-3FE5-43A4-A5D1-F8A90969F80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="200">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1883,15 +1883,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>啓動器設置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>檢測到新的FMCL版本：{}\n{}\n是否進行更新？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>您似乎解壓了啓動器，如果你不是開發者，請不要這麽做。自動更新已經停用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header.GUI.Launch</t>
+  </si>
+  <si>
+    <t>啓動器設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header.GUI.Download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header.GUI.Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Header.GUI.Else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Launch\n-\n启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download\n-\n资源下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings\n-\n设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Else\n-\n其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动\n-\nLaunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载\n-\nDownload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置\n-\nSettings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他\n-\nElse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Launch\n-\n啓動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download\n-\n資源下載</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings\n-\n設定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1902,7 +1961,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2002,6 +2061,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2034,7 +2100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2075,6 +2141,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2362,10 +2431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2392,7 +2461,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33">
+    <row r="2" spans="1:5" ht="27">
       <c r="A2" s="2" t="s">
         <v>101</v>
       </c>
@@ -2951,7 +3020,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="2:5" ht="16.5">
       <c r="B41" s="5" t="s">
         <v>137</v>
       </c>
@@ -2961,8 +3030,8 @@
       <c r="D41" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>182</v>
+      <c r="E41" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="27">
@@ -2976,7 +3045,7 @@
         <v>107</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="40.5">
@@ -2990,7 +3059,63 @@
         <v>134</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="17.25">
+      <c r="B44" s="14" t="s">
         <v>184</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="17.25">
+      <c r="B45" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="17.25">
+      <c r="B46" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="17.25">
+      <c r="B47" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +3124,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/i18n.xlsx
+++ b/i18n.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FMCL-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2F598B-3FE5-43A4-A5D1-F8A90969F80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DF8E07-FF63-42EA-AE87-54AB262D6856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,10 +646,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>To add a Microsoft Account:\n1. Open login link;\n2. Copy the redircted link to FMCL;\nClick "OK" to open login link.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Settings.Account.Tips.Wait</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1129,114 +1125,6 @@
         <family val="3"/>
       </rPr>
       <t>!</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>添加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono Light"/>
-        <family val="3"/>
-      </rPr>
-      <t>Microsoft</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>账号的方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono Light"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">:\n1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打开登陆链接</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono Light"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">\n2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>完成登陆后将重定向到的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono Light"/>
-        <family val="3"/>
-      </rPr>
-      <t>url</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复制过来</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="JetBrains Mono Light"/>
-        <family val="3"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点击确定键打开链接</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1739,10 +1627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建Microsoft賬戶方法：\n1.打開登錄鏈接\n2.完成登錄后將重定向到的鏈接複製到對話框\n3.點擊確定鍵打開登錄鏈接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>訪問出錯，請檢查你的鏈接和網絡鏈接。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1951,6 +1835,34 @@
   </si>
   <si>
     <t>Settings\n-\n設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击确定打开登录链接，设备代码会被自动添加到你的剪切板。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click "OK" to open login link, device code will be automatically copied .</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊確定打開登錄鏈接，設備代碼會被自動添加到前鐵板。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings.Account.Timeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log in time out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登錄超時</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2431,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -2452,35 +2364,35 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27">
       <c r="A2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
@@ -2492,7 +2404,7 @@
         <v>39</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2509,7 +2421,7 @@
         <v>40</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2523,7 +2435,7 @@
         <v>41</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
@@ -2537,7 +2449,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2551,7 +2463,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2565,7 +2477,7 @@
         <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40.5">
@@ -2573,13 +2485,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="27">
@@ -2587,13 +2499,13 @@
         <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5">
@@ -2608,7 +2520,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="40.5">
@@ -2620,10 +2532,10 @@
         <v>62</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5">
@@ -2632,13 +2544,13 @@
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5">
@@ -2647,13 +2559,13 @@
         <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2661,13 +2573,13 @@
         <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2675,13 +2587,13 @@
         <v>30</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -2689,13 +2601,13 @@
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:5">
@@ -2703,13 +2615,13 @@
         <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="16.5">
@@ -2717,13 +2629,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -2731,27 +2643,27 @@
         <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="40.5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="27">
       <c r="B21" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>121</v>
+        <v>197</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="27">
@@ -2765,7 +2677,7 @@
         <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="27">
@@ -2779,7 +2691,7 @@
         <v>58</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="2:5">
@@ -2793,35 +2705,35 @@
         <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="40.5">
       <c r="B25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="16.5">
       <c r="B26" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="27">
@@ -2829,13 +2741,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="2:5" ht="16.5">
@@ -2843,13 +2755,13 @@
         <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="2:5">
@@ -2857,13 +2769,13 @@
         <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="2:5">
@@ -2871,13 +2783,13 @@
         <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -2885,13 +2797,13 @@
         <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="2:5">
@@ -2899,13 +2811,13 @@
         <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="16.5">
@@ -2919,7 +2831,7 @@
         <v>85</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -2927,41 +2839,41 @@
         <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="27">
       <c r="B35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="16.5">
       <c r="B36" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="2:5" ht="16.5">
@@ -2969,27 +2881,27 @@
         <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="2:5">
@@ -2997,13 +2909,13 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -3011,111 +2923,125 @@
         <v>72</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="2:5" ht="16.5">
       <c r="B41" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="2:5" ht="27">
       <c r="B42" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="2:5" ht="40.5">
       <c r="B43" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="17.25">
       <c r="B44" s="14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="2:5" ht="17.25">
       <c r="B45" s="14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="17.25">
       <c r="B46" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="2:5" ht="17.25">
       <c r="B47" s="14" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
